--- a/Financial Services/FactSet Research Systems.xlsx
+++ b/Financial Services/FactSet Research Systems.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9802BB0F-594F-884A-98DC-7D3F98E01D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817BFBA9-1F23-4543-8818-E5B0BF1CB3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="9800" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1008,6 +1008,13 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1020,13 +1027,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2423,11 +2423,11 @@
     <v>Powered by Refinitiv</v>
     <v>474.13</v>
     <v>345.92</v>
-    <v>0.82889999999999997</v>
-    <v>2.74</v>
-    <v>6.8149999999999999E-3</v>
-    <v>4.45</v>
-    <v>1.0993999999999999E-2</v>
+    <v>0.82430000000000003</v>
+    <v>2.06</v>
+    <v>5.1999999999999998E-3</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>FactSet Research Systems Inc. is a global financial data and analytics company. The Company provides financial data and market intelligence on securities, companies and industries to enable its clients to research investment ideas, as well as offering them the capabilities to analyze, monitor and manage their portfolios. The Company also offers technologies, such as a configurable desktop and mobile platform, comprehensive data feeds, cloud-based digital solutions, and application programming interfaces (APIs). Its solutions span investment research, portfolio construction and analysis, trade execution, performance measurement, risk management, and reporting across the investment lifecycle. The Company operates through three geographical segments: the Americas, EMEA and Asia Pacific. It primarily delivers insight and information through its three workflow solutions: Research &amp; Advisory; Analytics &amp; Trading; and Content &amp; Technology (CTS).</v>
     <v>11896</v>
@@ -2435,25 +2435,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>45 Glover Avenue, NORWALK, CT, 06850 US</v>
-    <v>405.66</v>
+    <v>399.81</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45022.958333356248</v>
+    <v>45068.866811087501</v>
     <v>0</v>
-    <v>399.74</v>
-    <v>15510960000</v>
+    <v>393.08</v>
+    <v>15260736892</v>
     <v>FACTSET RESEARCH SYSTEMS INC.</v>
     <v>FACTSET RESEARCH SYSTEMS INC.</v>
-    <v>400.6</v>
-    <v>34.9754</v>
-    <v>402.04</v>
-    <v>404.78</v>
-    <v>409.23</v>
+    <v>396.46</v>
+    <v>34.466500000000003</v>
+    <v>396.19</v>
+    <v>398.25</v>
+    <v>398.25</v>
     <v>38319490</v>
     <v>FDS</v>
     <v>FACTSET RESEARCH SYSTEMS INC. (XNYS:FDS)</v>
-    <v>205113</v>
-    <v>316827</v>
+    <v>280462</v>
+    <v>218485</v>
     <v>1984</v>
   </rv>
   <rv s="2">
@@ -3041,10 +3041,10 @@
   <dimension ref="A1:AK118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AA80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AA88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AJ101" sqref="AJ101"/>
+      <selection pane="bottomRight" activeCell="AF101" sqref="AF101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4702,15 +4702,15 @@
       </c>
       <c r="AI16" s="30">
         <f>AJ101/AB3</f>
-        <v>8.4120761953520056</v>
+        <v>8.27637241877507</v>
       </c>
       <c r="AJ16" s="30">
         <f>AJ101/AB28</f>
-        <v>39.078598296369265</v>
+        <v>38.448181589601859</v>
       </c>
       <c r="AK16" s="31">
         <f>AJ101/AB106</f>
-        <v>31.842109044775324</v>
+        <v>31.328431523173915</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -10580,10 +10580,10 @@
       <c r="AB83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AI83" s="58" t="s">
+      <c r="AI83" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="AJ83" s="59"/>
+      <c r="AJ83" s="62"/>
     </row>
     <row r="84" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -10670,10 +10670,10 @@
       <c r="AB84" s="1">
         <v>12815000</v>
       </c>
-      <c r="AI84" s="60" t="s">
+      <c r="AI84" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="AJ84" s="61"/>
+      <c r="AJ84" s="64"/>
     </row>
     <row r="85" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -11531,10 +11531,10 @@
       <c r="AB93" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AI93" s="60" t="s">
+      <c r="AI93" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="AJ93" s="61"/>
+      <c r="AJ93" s="64"/>
     </row>
     <row r="94" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -11718,7 +11718,7 @@
       </c>
       <c r="AJ95" s="38" cm="1">
         <f t="array" ref="AJ95">_FV(A1,"Beta")</f>
-        <v>0.82889999999999997</v>
+        <v>0.82430000000000003</v>
       </c>
     </row>
     <row r="96" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -11903,7 +11903,7 @@
       </c>
       <c r="AJ97" s="36">
         <f>(AJ94)+((AJ95)*(AJ96-AJ94))</f>
-        <v>7.6634145000000001E-2</v>
+        <v>7.6436114999999999E-2</v>
       </c>
     </row>
     <row r="98" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -11991,10 +11991,10 @@
       <c r="AB98" s="1">
         <v>-125934000</v>
       </c>
-      <c r="AI98" s="60" t="s">
+      <c r="AI98" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="AJ98" s="61"/>
+      <c r="AJ98" s="64"/>
     </row>
     <row r="99" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -12179,7 +12179,7 @@
       </c>
       <c r="AJ100" s="34">
         <f>AJ99/AJ103</f>
-        <v>0.12521612338392835</v>
+        <v>0.12700847079617758</v>
       </c>
     </row>
     <row r="101" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12272,7 +12272,7 @@
       </c>
       <c r="AJ101" s="39" cm="1">
         <f t="array" ref="AJ101">_FV(A1,"Market cap",TRUE)</f>
-        <v>15510960000</v>
+        <v>15260736892</v>
       </c>
     </row>
     <row r="102" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12365,7 +12365,7 @@
       </c>
       <c r="AJ102" s="34">
         <f>AJ101/AJ103</f>
-        <v>0.8747838766160716</v>
+        <v>0.87299152920382239</v>
       </c>
     </row>
     <row r="103" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12458,7 +12458,7 @@
       </c>
       <c r="AJ103" s="40">
         <f>AJ99+AJ101</f>
-        <v>17731191000</v>
+        <v>17480967892</v>
       </c>
     </row>
     <row r="104" spans="1:36" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12546,10 +12546,10 @@
       <c r="AB104" s="11">
         <v>503273000</v>
       </c>
-      <c r="AI104" s="60" t="s">
+      <c r="AI104" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="AJ104" s="61"/>
+      <c r="AJ104" s="64"/>
     </row>
     <row r="105" spans="1:36" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -12671,7 +12671,7 @@
       </c>
       <c r="AJ105" s="26">
         <f>(AJ100*AJ92)+(AJ102*AJ97)</f>
-        <v>6.8528093638418733E-2</v>
+        <v>6.8239184859269456E-2</v>
       </c>
     </row>
     <row r="106" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -12825,7 +12825,7 @@
       <c r="AF107" s="42"/>
       <c r="AG107" s="45">
         <f>AG106*(1+AJ107)/(AJ108-AJ107)</f>
-        <v>16710238592.889702</v>
+        <v>16821890434.775198</v>
       </c>
       <c r="AH107" s="46" t="s">
         <v>148</v>
@@ -12856,7 +12856,7 @@
       </c>
       <c r="AG108" s="45">
         <f>AG107+AG106</f>
-        <v>17419862817.466892</v>
+        <v>17531514659.35239</v>
       </c>
       <c r="AH108" s="46" t="s">
         <v>144</v>
@@ -12866,14 +12866,14 @@
       </c>
       <c r="AJ108" s="50">
         <f>AJ105</f>
-        <v>6.8528093638418733E-2</v>
+        <v>6.8239184859269456E-2</v>
       </c>
     </row>
     <row r="109" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="AC109" s="62" t="s">
+      <c r="AC109" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="AD109" s="63"/>
+      <c r="AD109" s="60"/>
     </row>
     <row r="110" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="AC110" s="51" t="s">
@@ -12881,7 +12881,7 @@
       </c>
       <c r="AD110" s="39">
         <f>NPV(AJ108,AC108,AD108,AE108,AF108,AG108)</f>
-        <v>14498636659.884541</v>
+        <v>14597175354.185495</v>
       </c>
     </row>
     <row r="111" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12908,7 +12908,7 @@
       </c>
       <c r="AD113" s="39">
         <f>AD110+AD111-AD112</f>
-        <v>12814897659.884541</v>
+        <v>12913436354.185495</v>
       </c>
     </row>
     <row r="114" spans="29:30" ht="20" x14ac:dyDescent="0.25">
@@ -12924,9 +12924,9 @@
       <c r="AC115" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="AD115" s="64">
+      <c r="AD115" s="58">
         <f>AD113/AD114</f>
-        <v>338.60998990983916</v>
+        <v>341.21369281629501</v>
       </c>
     </row>
     <row r="116" spans="29:30" ht="20" x14ac:dyDescent="0.25">
@@ -12935,7 +12935,7 @@
       </c>
       <c r="AD116" s="54" cm="1">
         <f t="array" ref="AD116">_FV(A1,"Price")</f>
-        <v>404.78</v>
+        <v>398.25</v>
       </c>
     </row>
     <row r="117" spans="29:30" ht="20" x14ac:dyDescent="0.25">
@@ -12944,7 +12944,7 @@
       </c>
       <c r="AD117" s="56">
         <f>AD115/AD116-1</f>
-        <v>-0.16347154031859479</v>
+        <v>-0.14321734383855611</v>
       </c>
     </row>
     <row r="118" spans="29:30" ht="20" x14ac:dyDescent="0.25">

--- a/Financial Services/FactSet Research Systems.xlsx
+++ b/Financial Services/FactSet Research Systems.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817BFBA9-1F23-4543-8818-E5B0BF1CB3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F670C74-89BB-894C-810B-736BCED4E153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="9800" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2423,9 +2423,9 @@
     <v>Powered by Refinitiv</v>
     <v>474.13</v>
     <v>345.92</v>
-    <v>0.82430000000000003</v>
-    <v>2.06</v>
-    <v>5.1999999999999998E-3</v>
+    <v>0.82799999999999996</v>
+    <v>4.54</v>
+    <v>1.1169999999999999E-2</v>
     <v>0</v>
     <v>0</v>
     <v>USD</v>
@@ -2435,25 +2435,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>45 Glover Avenue, NORWALK, CT, 06850 US</v>
-    <v>399.81</v>
+    <v>412.41</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45068.866811087501</v>
+    <v>45091.958333356248</v>
     <v>0</v>
-    <v>393.08</v>
-    <v>15260736892</v>
+    <v>403.31</v>
+    <v>15748927195</v>
     <v>FACTSET RESEARCH SYSTEMS INC.</v>
     <v>FACTSET RESEARCH SYSTEMS INC.</v>
-    <v>396.46</v>
-    <v>34.466500000000003</v>
-    <v>396.19</v>
-    <v>398.25</v>
-    <v>398.25</v>
+    <v>406.04</v>
+    <v>35.753999999999998</v>
+    <v>406.45</v>
+    <v>410.99</v>
+    <v>410.99</v>
     <v>38319490</v>
     <v>FDS</v>
     <v>FACTSET RESEARCH SYSTEMS INC. (XNYS:FDS)</v>
-    <v>280462</v>
-    <v>218485</v>
+    <v>252856</v>
+    <v>256695</v>
     <v>1984</v>
   </rv>
   <rv s="2">
@@ -3044,7 +3044,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AA88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF101" sqref="AF101"/>
+      <selection pane="bottomRight" activeCell="AB111" sqref="AB111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4702,15 +4702,15 @@
       </c>
       <c r="AI16" s="30">
         <f>AJ101/AB3</f>
-        <v>8.27637241877507</v>
+        <v>8.5411332089948875</v>
       </c>
       <c r="AJ16" s="30">
         <f>AJ101/AB28</f>
-        <v>38.448181589601859</v>
+        <v>39.678137230201777</v>
       </c>
       <c r="AK16" s="31">
         <f>AJ101/AB106</f>
-        <v>31.328431523173915</v>
+        <v>32.330626671812546</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -11718,7 +11718,7 @@
       </c>
       <c r="AJ95" s="38" cm="1">
         <f t="array" ref="AJ95">_FV(A1,"Beta")</f>
-        <v>0.82430000000000003</v>
+        <v>0.82799999999999996</v>
       </c>
     </row>
     <row r="96" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -11903,7 +11903,7 @@
       </c>
       <c r="AJ97" s="36">
         <f>(AJ94)+((AJ95)*(AJ96-AJ94))</f>
-        <v>7.6436114999999999E-2</v>
+        <v>7.6595400000000008E-2</v>
       </c>
     </row>
     <row r="98" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -12179,7 +12179,7 @@
       </c>
       <c r="AJ100" s="34">
         <f>AJ99/AJ103</f>
-        <v>0.12700847079617758</v>
+        <v>0.12355787488240765</v>
       </c>
     </row>
     <row r="101" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12272,7 +12272,7 @@
       </c>
       <c r="AJ101" s="39" cm="1">
         <f t="array" ref="AJ101">_FV(A1,"Market cap",TRUE)</f>
-        <v>15260736892</v>
+        <v>15748927195</v>
       </c>
     </row>
     <row r="102" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12365,7 +12365,7 @@
       </c>
       <c r="AJ102" s="34">
         <f>AJ101/AJ103</f>
-        <v>0.87299152920382239</v>
+        <v>0.87644212511759234</v>
       </c>
     </row>
     <row r="103" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12458,7 +12458,7 @@
       </c>
       <c r="AJ103" s="40">
         <f>AJ99+AJ101</f>
-        <v>17480967892</v>
+        <v>17969158195</v>
       </c>
     </row>
     <row r="104" spans="1:36" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12671,7 +12671,7 @@
       </c>
       <c r="AJ105" s="26">
         <f>(AJ100*AJ92)+(AJ102*AJ97)</f>
-        <v>6.8239184859269456E-2</v>
+        <v>6.8601485063134335E-2</v>
       </c>
     </row>
     <row r="106" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -12825,7 +12825,7 @@
       <c r="AF107" s="42"/>
       <c r="AG107" s="45">
         <f>AG106*(1+AJ107)/(AJ108-AJ107)</f>
-        <v>16821890434.775198</v>
+        <v>16682111380.802912</v>
       </c>
       <c r="AH107" s="46" t="s">
         <v>148</v>
@@ -12856,7 +12856,7 @@
       </c>
       <c r="AG108" s="45">
         <f>AG107+AG106</f>
-        <v>17531514659.35239</v>
+        <v>17391735605.380104</v>
       </c>
       <c r="AH108" s="46" t="s">
         <v>144</v>
@@ -12866,7 +12866,7 @@
       </c>
       <c r="AJ108" s="50">
         <f>AJ105</f>
-        <v>6.8239184859269456E-2</v>
+        <v>6.8601485063134335E-2</v>
       </c>
     </row>
     <row r="109" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -12881,7 +12881,7 @@
       </c>
       <c r="AD110" s="39">
         <f>NPV(AJ108,AC108,AD108,AE108,AF108,AG108)</f>
-        <v>14597175354.185495</v>
+        <v>14473813182.699249</v>
       </c>
     </row>
     <row r="111" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12908,7 +12908,7 @@
       </c>
       <c r="AD113" s="39">
         <f>AD110+AD111-AD112</f>
-        <v>12913436354.185495</v>
+        <v>12790074182.699249</v>
       </c>
     </row>
     <row r="114" spans="29:30" ht="20" x14ac:dyDescent="0.25">
@@ -12926,7 +12926,7 @@
       </c>
       <c r="AD115" s="58">
         <f>AD113/AD114</f>
-        <v>341.21369281629501</v>
+        <v>337.95407539672129</v>
       </c>
     </row>
     <row r="116" spans="29:30" ht="20" x14ac:dyDescent="0.25">
@@ -12935,7 +12935,7 @@
       </c>
       <c r="AD116" s="54" cm="1">
         <f t="array" ref="AD116">_FV(A1,"Price")</f>
-        <v>398.25</v>
+        <v>410.99</v>
       </c>
     </row>
     <row r="117" spans="29:30" ht="20" x14ac:dyDescent="0.25">
@@ -12944,7 +12944,7 @@
       </c>
       <c r="AD117" s="56">
         <f>AD115/AD116-1</f>
-        <v>-0.14321734383855611</v>
+        <v>-0.17770730334869145</v>
       </c>
     </row>
     <row r="118" spans="29:30" ht="20" x14ac:dyDescent="0.25">

--- a/Financial Services/FactSet Research Systems.xlsx
+++ b/Financial Services/FactSet Research Systems.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F670C74-89BB-894C-810B-736BCED4E153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F61235-63B7-DD41-808F-3DE6C010EED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2422,38 +2422,35 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>474.13</v>
-    <v>345.92</v>
-    <v>0.82799999999999996</v>
-    <v>4.54</v>
-    <v>1.1169999999999999E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>377.89</v>
+    <v>0.81499999999999995</v>
+    <v>1.51</v>
+    <v>3.5310000000000003E-3</v>
     <v>USD</v>
     <v>FactSet Research Systems Inc. is a global financial data and analytics company. The Company provides financial data and market intelligence on securities, companies and industries to enable its clients to research investment ideas, as well as offering them the capabilities to analyze, monitor and manage their portfolios. The Company also offers technologies, such as a configurable desktop and mobile platform, comprehensive data feeds, cloud-based digital solutions, and application programming interfaces (APIs). Its solutions span investment research, portfolio construction and analysis, trade execution, performance measurement, risk management, and reporting across the investment lifecycle. The Company operates through three geographical segments: the Americas, EMEA and Asia Pacific. It primarily delivers insight and information through its three workflow solutions: Research &amp; Advisory; Analytics &amp; Trading; and Content &amp; Technology (CTS).</v>
-    <v>11896</v>
+    <v>12072</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>45 Glover Avenue, NORWALK, CT, 06850 US</v>
-    <v>412.41</v>
+    <v>431.99</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45091.958333356248</v>
+    <v>45187.958333344533</v>
     <v>0</v>
-    <v>403.31</v>
-    <v>15748927195</v>
+    <v>426.625</v>
+    <v>16371598991</v>
     <v>FACTSET RESEARCH SYSTEMS INC.</v>
     <v>FACTSET RESEARCH SYSTEMS INC.</v>
-    <v>406.04</v>
-    <v>35.753999999999998</v>
-    <v>406.45</v>
-    <v>410.99</v>
-    <v>410.99</v>
-    <v>38319490</v>
+    <v>427.47</v>
+    <v>32.960599999999999</v>
+    <v>427.67</v>
+    <v>429.18</v>
+    <v>38146230</v>
     <v>FDS</v>
     <v>FACTSET RESEARCH SYSTEMS INC. (XNYS:FDS)</v>
-    <v>252856</v>
-    <v>256695</v>
+    <v>4</v>
+    <v>222449</v>
     <v>1984</v>
   </rv>
   <rv s="2">
@@ -2485,8 +2482,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2507,7 +2502,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2524,7 +2518,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2535,16 +2529,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2610,19 +2601,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2667,9 +2652,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2677,9 +2659,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3041,10 +3020,10 @@
   <dimension ref="A1:AK118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AA88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AA97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB111" sqref="AB111"/>
+      <selection pane="bottomRight" activeCell="AD101" sqref="AD101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4702,15 +4681,15 @@
       </c>
       <c r="AI16" s="30">
         <f>AJ101/AB3</f>
-        <v>8.5411332089948875</v>
+        <v>8.8788274969466752</v>
       </c>
       <c r="AJ16" s="30">
         <f>AJ101/AB28</f>
-        <v>39.678137230201777</v>
+        <v>41.246908021072414</v>
       </c>
       <c r="AK16" s="31">
         <f>AJ101/AB106</f>
-        <v>32.330626671812546</v>
+        <v>33.608895923189515</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -11718,7 +11697,7 @@
       </c>
       <c r="AJ95" s="38" cm="1">
         <f t="array" ref="AJ95">_FV(A1,"Beta")</f>
-        <v>0.82799999999999996</v>
+        <v>0.81499999999999995</v>
       </c>
     </row>
     <row r="96" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -11903,7 +11882,7 @@
       </c>
       <c r="AJ97" s="36">
         <f>(AJ94)+((AJ95)*(AJ96-AJ94))</f>
-        <v>7.6595400000000008E-2</v>
+        <v>7.6035749999999999E-2</v>
       </c>
     </row>
     <row r="98" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -12179,7 +12158,7 @@
       </c>
       <c r="AJ100" s="34">
         <f>AJ99/AJ103</f>
-        <v>0.12355787488240765</v>
+        <v>0.11941971291017492</v>
       </c>
     </row>
     <row r="101" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12272,7 +12251,7 @@
       </c>
       <c r="AJ101" s="39" cm="1">
         <f t="array" ref="AJ101">_FV(A1,"Market cap",TRUE)</f>
-        <v>15748927195</v>
+        <v>16371598991</v>
       </c>
     </row>
     <row r="102" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12365,7 +12344,7 @@
       </c>
       <c r="AJ102" s="34">
         <f>AJ101/AJ103</f>
-        <v>0.87644212511759234</v>
+        <v>0.88058028708982505</v>
       </c>
     </row>
     <row r="103" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12458,7 +12437,7 @@
       </c>
       <c r="AJ103" s="40">
         <f>AJ99+AJ101</f>
-        <v>17969158195</v>
+        <v>18591829991</v>
       </c>
     </row>
     <row r="104" spans="1:36" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12671,7 +12650,7 @@
       </c>
       <c r="AJ105" s="26">
         <f>(AJ100*AJ92)+(AJ102*AJ97)</f>
-        <v>6.8601485063134335E-2</v>
+        <v>6.8376398021862461E-2</v>
       </c>
     </row>
     <row r="106" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -12825,7 +12804,7 @@
       <c r="AF107" s="42"/>
       <c r="AG107" s="45">
         <f>AG106*(1+AJ107)/(AJ108-AJ107)</f>
-        <v>16682111380.802912</v>
+        <v>16768677515.016735</v>
       </c>
       <c r="AH107" s="46" t="s">
         <v>148</v>
@@ -12856,7 +12835,7 @@
       </c>
       <c r="AG108" s="45">
         <f>AG107+AG106</f>
-        <v>17391735605.380104</v>
+        <v>17478301739.593925</v>
       </c>
       <c r="AH108" s="46" t="s">
         <v>144</v>
@@ -12866,7 +12845,7 @@
       </c>
       <c r="AJ108" s="50">
         <f>AJ105</f>
-        <v>6.8601485063134335E-2</v>
+        <v>6.8376398021862461E-2</v>
       </c>
     </row>
     <row r="109" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -12881,7 +12860,7 @@
       </c>
       <c r="AD110" s="39">
         <f>NPV(AJ108,AC108,AD108,AE108,AF108,AG108)</f>
-        <v>14473813182.699249</v>
+        <v>14550211895.464834</v>
       </c>
     </row>
     <row r="111" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12908,7 +12887,7 @@
       </c>
       <c r="AD113" s="39">
         <f>AD110+AD111-AD112</f>
-        <v>12790074182.699249</v>
+        <v>12866472895.464834</v>
       </c>
     </row>
     <row r="114" spans="29:30" ht="20" x14ac:dyDescent="0.25">
@@ -12926,7 +12905,7 @@
       </c>
       <c r="AD115" s="58">
         <f>AD113/AD114</f>
-        <v>337.95407539672129</v>
+        <v>339.9727702037552</v>
       </c>
     </row>
     <row r="116" spans="29:30" ht="20" x14ac:dyDescent="0.25">
@@ -12935,7 +12914,7 @@
       </c>
       <c r="AD116" s="54" cm="1">
         <f t="array" ref="AD116">_FV(A1,"Price")</f>
-        <v>410.99</v>
+        <v>429.18</v>
       </c>
     </row>
     <row r="117" spans="29:30" ht="20" x14ac:dyDescent="0.25">
@@ -12944,7 +12923,7 @@
       </c>
       <c r="AD117" s="56">
         <f>AD115/AD116-1</f>
-        <v>-0.17770730334869145</v>
+        <v>-0.20785504868876647</v>
       </c>
     </row>
     <row r="118" spans="29:30" ht="20" x14ac:dyDescent="0.25">
